--- a/raw/1936election.xlsx
+++ b/raw/1936election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BC25E7-C14B-B74E-B9ED-F666F05A22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519890F9-CA48-8F45-819F-FB942B2AAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18080" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8588,7 +8588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8895,8 +8895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A1105" zoomScale="209" workbookViewId="0">
+      <selection activeCell="D1117" sqref="D1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -31077,7 +31077,7 @@
         <v>1514</v>
       </c>
       <c r="C978" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D978" t="s">
         <v>15</v>
@@ -31100,7 +31100,7 @@
         <v>1514</v>
       </c>
       <c r="C979" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D979" t="s">
         <v>15</v>
@@ -31123,7 +31123,7 @@
         <v>1514</v>
       </c>
       <c r="C980" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D980" t="s">
         <v>17</v>
@@ -31146,7 +31146,7 @@
         <v>1514</v>
       </c>
       <c r="C981" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D981" t="s">
         <v>17</v>
@@ -31169,7 +31169,7 @@
         <v>1514</v>
       </c>
       <c r="C982" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D982" t="s">
         <v>22</v>
@@ -31192,7 +31192,7 @@
         <v>1514</v>
       </c>
       <c r="C983" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D983" t="s">
         <v>22</v>
@@ -31215,7 +31215,7 @@
         <v>1514</v>
       </c>
       <c r="C984" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D984" t="s">
         <v>25</v>
@@ -31238,7 +31238,7 @@
         <v>1514</v>
       </c>
       <c r="C985" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D985" t="s">
         <v>25</v>
@@ -31261,7 +31261,7 @@
         <v>1514</v>
       </c>
       <c r="C986" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D986" t="s">
         <v>30</v>
@@ -31284,7 +31284,7 @@
         <v>1514</v>
       </c>
       <c r="C987" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D987" t="s">
         <v>30</v>
@@ -31307,7 +31307,7 @@
         <v>1514</v>
       </c>
       <c r="C988" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D988" t="s">
         <v>33</v>
@@ -31330,7 +31330,7 @@
         <v>1514</v>
       </c>
       <c r="C989" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D989" t="s">
         <v>33</v>
@@ -31353,7 +31353,7 @@
         <v>1514</v>
       </c>
       <c r="C990" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D990" t="s">
         <v>35</v>
@@ -31376,7 +31376,7 @@
         <v>1514</v>
       </c>
       <c r="C991" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D991" t="s">
         <v>35</v>
@@ -31399,7 +31399,7 @@
         <v>1514</v>
       </c>
       <c r="C992" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D992" t="s">
         <v>39</v>
@@ -31422,7 +31422,7 @@
         <v>1514</v>
       </c>
       <c r="C993" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D993" t="s">
         <v>39</v>
@@ -31445,7 +31445,7 @@
         <v>1514</v>
       </c>
       <c r="C994" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D994" t="s">
         <v>45</v>
@@ -31468,7 +31468,7 @@
         <v>1514</v>
       </c>
       <c r="C995" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D995" t="s">
         <v>45</v>
@@ -31491,7 +31491,7 @@
         <v>1514</v>
       </c>
       <c r="C996" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D996" t="s">
         <v>110</v>
@@ -31514,7 +31514,7 @@
         <v>1514</v>
       </c>
       <c r="C997" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D997" t="s">
         <v>110</v>
@@ -31537,7 +31537,7 @@
         <v>1514</v>
       </c>
       <c r="C998" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D998">
         <v>11</v>
@@ -31560,7 +31560,7 @@
         <v>1514</v>
       </c>
       <c r="C999" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D999">
         <v>11</v>
@@ -34077,7 +34077,7 @@
         <v>1731</v>
       </c>
       <c r="C1110" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1110">
         <v>1</v>
@@ -34100,7 +34100,7 @@
         <v>1731</v>
       </c>
       <c r="C1111" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1111" t="s">
         <v>15</v>
@@ -34123,7 +34123,7 @@
         <v>1731</v>
       </c>
       <c r="C1112" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1112" t="s">
         <v>15</v>
@@ -34146,7 +34146,7 @@
         <v>1731</v>
       </c>
       <c r="C1113" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1113" t="s">
         <v>17</v>
@@ -34169,7 +34169,7 @@
         <v>1731</v>
       </c>
       <c r="C1114" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1114" t="s">
         <v>17</v>
@@ -34192,7 +34192,7 @@
         <v>1731</v>
       </c>
       <c r="C1115" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1115">
         <v>3</v>
@@ -34215,7 +34215,7 @@
         <v>1731</v>
       </c>
       <c r="C1116" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1116">
         <v>3</v>
@@ -34238,7 +34238,7 @@
         <v>1731</v>
       </c>
       <c r="C1117" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1117">
         <v>3</v>
@@ -34261,7 +34261,7 @@
         <v>1731</v>
       </c>
       <c r="C1118" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1118">
         <v>3</v>
@@ -34284,7 +34284,7 @@
         <v>1731</v>
       </c>
       <c r="C1119" t="s">
-        <v>7</v>
+        <v>2315</v>
       </c>
       <c r="D1119">
         <v>3</v>
